--- a/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26179AA7-5EA9-4B0A-8F22-CBADB89B9E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01636E3-19B4-43C2-8ABB-6BBA4813661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39B415BC-83B1-4EAD-A05E-802579E86A7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00E18D1A-FB6B-41E3-A5DC-9570EAA46DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>91,34%</t>
+    <t>91,2%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>95,46%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
@@ -122,7 +122,7 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,19%</t>
   </si>
   <si>
     <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
@@ -134,13 +134,13 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,35%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>3,6%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -149,307 +149,304 @@
     <t>96,6%</t>
   </si>
   <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>1,6%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,74%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,49%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A94081-CCF4-497F-AED9-934A45F8D9FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EA368B-850A-4796-A01B-EDE15EFB0B92}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1368,7 +1365,7 @@
         <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -1377,13 +1374,13 @@
         <v>4834</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,10 +1398,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1413,13 +1410,13 @@
         <v>6425</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -1428,13 +1425,13 @@
         <v>14425</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,13 +1446,13 @@
         <v>2628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1470,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1485,7 +1482,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,13 +1497,13 @@
         <v>4825</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1515,13 +1512,13 @@
         <v>3975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1530,13 +1527,13 @@
         <v>8800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1592,7 +1589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1604,13 +1601,13 @@
         <v>154370</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
@@ -1619,13 +1616,13 @@
         <v>180567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -1634,13 +1631,13 @@
         <v>334938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1658,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1691,7 +1688,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1703,13 @@
         <v>4571</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -1721,13 +1718,13 @@
         <v>8653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1736,13 +1733,13 @@
         <v>13223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1760,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1772,13 +1769,13 @@
         <v>1896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1787,13 +1784,13 @@
         <v>1896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1805,13 @@
         <v>6472</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1823,13 +1820,13 @@
         <v>6257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -1838,13 +1835,13 @@
         <v>12729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1909,13 @@
         <v>679149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>971</v>
@@ -1927,13 +1924,13 @@
         <v>723056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>1534</v>
@@ -1942,13 +1939,13 @@
         <v>1402205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1960,13 @@
         <v>1284</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -1978,13 +1975,13 @@
         <v>3549</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -1993,13 +1990,13 @@
         <v>4834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2011,7 @@
         <v>12571</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>118</v>
@@ -2029,13 +2026,13 @@
         <v>15670</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -2044,13 +2041,13 @@
         <v>28241</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2062,13 @@
         <v>2628</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2080,13 +2077,13 @@
         <v>1896</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2101,7 +2098,7 @@
         <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2113,13 @@
         <v>11296</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2131,13 +2128,13 @@
         <v>10942</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2146,13 +2143,13 @@
         <v>22239</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,7 +2205,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01636E3-19B4-43C2-8ABB-6BBA4813661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A14C83-5416-4998-A6F3-35D26DFF4352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00E18D1A-FB6B-41E3-A5DC-9570EAA46DFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96F4819C-05C7-4353-B496-F0039D436A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EA368B-850A-4796-A01B-EDE15EFB0B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8055823-B26D-42C5-B4DB-A3647ABB34E7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A14C83-5416-4998-A6F3-35D26DFF4352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFB6A85-2B29-4273-9406-54EBFD23E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96F4819C-05C7-4353-B496-F0039D436A7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79D6F46A-C97C-4916-9AC4-9D33EE49BD42}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>91,2%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>95,46%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
@@ -122,7 +122,7 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,19%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
@@ -134,13 +134,13 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>7,35%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -149,43 +149,40 @@
     <t>96,6%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -194,259 +191,265 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -861,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8055823-B26D-42C5-B4DB-A3647ABB34E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A81DCC-69A4-4E84-8594-A440CE3718AA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1365,7 +1368,7 @@
         <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -1374,13 +1377,13 @@
         <v>4834</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,10 +1401,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1410,13 +1413,13 @@
         <v>6425</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -1425,13 +1428,13 @@
         <v>14425</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,13 +1449,13 @@
         <v>2628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1467,7 +1470,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1482,7 +1485,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,13 +1500,13 @@
         <v>4825</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1512,13 +1515,13 @@
         <v>3975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1527,13 +1530,13 @@
         <v>8800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1589,7 +1592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1601,13 +1604,13 @@
         <v>154370</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
@@ -1616,13 +1619,13 @@
         <v>180567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -1631,13 +1634,13 @@
         <v>334938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1688,7 +1691,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1706,13 @@
         <v>4571</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -1718,13 +1721,13 @@
         <v>8653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1733,13 +1736,13 @@
         <v>13223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1769,13 +1772,13 @@
         <v>1896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1784,13 +1787,13 @@
         <v>1896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,13 +1808,13 @@
         <v>6472</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1820,13 +1823,13 @@
         <v>6257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -1835,13 +1838,13 @@
         <v>12729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1912,13 @@
         <v>679149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>971</v>
@@ -1924,13 +1927,13 @@
         <v>723056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>1534</v>
@@ -1939,13 +1942,13 @@
         <v>1402205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,13 +1963,13 @@
         <v>1284</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -1975,13 +1978,13 @@
         <v>3549</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -1990,13 +1993,13 @@
         <v>4834</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2014,7 @@
         <v>12571</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>118</v>
@@ -2026,13 +2029,13 @@
         <v>15670</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -2041,13 +2044,13 @@
         <v>28241</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2065,13 @@
         <v>2628</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2077,13 +2080,13 @@
         <v>1896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2098,7 +2101,7 @@
         <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2116,13 @@
         <v>11296</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2128,13 +2131,13 @@
         <v>10942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2143,13 +2146,13 @@
         <v>22239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,7 +2208,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFB6A85-2B29-4273-9406-54EBFD23E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D40AE263-4D77-4AC8-8AC7-3660568E9709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79D6F46A-C97C-4916-9AC4-9D33EE49BD42}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C38326C7-FA88-4CDA-8B70-7191D97843F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -80,16 +80,16 @@
     <t>100%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
@@ -113,16 +113,16 @@
     <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,26%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
@@ -131,325 +131,337 @@
     <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A81DCC-69A4-4E84-8594-A440CE3718AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD8BBC3-C8BC-4CC1-B1AB-B77C1DCDEE48}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -985,7 +997,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="7">
-        <v>48866</v>
+        <v>48320</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1000,7 +1012,7 @@
         <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>46697</v>
+        <v>42463</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1015,7 +1027,7 @@
         <v>115</v>
       </c>
       <c r="N4" s="7">
-        <v>95563</v>
+        <v>90783</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1102,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>25</v>
@@ -1117,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>27</v>
@@ -1204,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
@@ -1219,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>33</v>
@@ -1240,7 +1252,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>48866</v>
+        <v>48320</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1255,7 +1267,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="7">
-        <v>47999</v>
+        <v>43712</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1270,7 +1282,7 @@
         <v>117</v>
       </c>
       <c r="N9" s="7">
-        <v>96865</v>
+        <v>92032</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1293,7 +1305,7 @@
         <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>475913</v>
+        <v>657094</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -1308,7 +1320,7 @@
         <v>662</v>
       </c>
       <c r="I10" s="7">
-        <v>495791</v>
+        <v>455879</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>39</v>
@@ -1323,7 +1335,7 @@
         <v>1042</v>
       </c>
       <c r="N10" s="7">
-        <v>971704</v>
+        <v>1112973</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>42</v>
@@ -1344,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1284</v>
+        <v>1208</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>45</v>
@@ -1359,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>3549</v>
+        <v>3225</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>47</v>
@@ -1368,22 +1380,22 @@
         <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>4834</v>
+        <v>4433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,46 +1407,46 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>8001</v>
+        <v>7536</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>6425</v>
+        <v>5935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>14425</v>
+        <v>13470</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,16 +1458,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2628</v>
+        <v>2761</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1470,22 +1482,22 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>2628</v>
+        <v>2761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,46 +1509,46 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>4825</v>
+        <v>4433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>3975</v>
+        <v>3655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>8800</v>
+        <v>8087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,7 +1560,7 @@
         <v>395</v>
       </c>
       <c r="D15" s="7">
-        <v>492650</v>
+        <v>673031</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1563,7 +1575,7 @@
         <v>682</v>
       </c>
       <c r="I15" s="7">
-        <v>509740</v>
+        <v>468694</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1578,7 +1590,7 @@
         <v>1077</v>
       </c>
       <c r="N15" s="7">
-        <v>1002390</v>
+        <v>1141725</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1592,7 +1604,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1601,46 +1613,46 @@
         <v>135</v>
       </c>
       <c r="D16" s="7">
-        <v>154370</v>
+        <v>147351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
       </c>
       <c r="I16" s="7">
-        <v>180567</v>
+        <v>167499</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
       </c>
       <c r="N16" s="7">
-        <v>334938</v>
+        <v>314850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1676,7 +1688,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1691,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,46 +1715,46 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>4571</v>
+        <v>4439</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>8653</v>
+        <v>8181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>13223</v>
+        <v>12621</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,37 +1775,37 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1896</v>
+        <v>1724</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1896</v>
+        <v>1724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,46 +1817,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>6472</v>
+        <v>6115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>6257</v>
+        <v>5469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>12729</v>
+        <v>11584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,7 +1868,7 @@
         <v>143</v>
       </c>
       <c r="D21" s="7">
-        <v>165412</v>
+        <v>157906</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1871,7 +1883,7 @@
         <v>262</v>
       </c>
       <c r="I21" s="7">
-        <v>197373</v>
+        <v>182873</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1886,7 +1898,7 @@
         <v>405</v>
       </c>
       <c r="N21" s="7">
-        <v>362786</v>
+        <v>340778</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1909,46 +1921,46 @@
         <v>563</v>
       </c>
       <c r="D22" s="7">
-        <v>679149</v>
+        <v>852766</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>971</v>
       </c>
       <c r="I22" s="7">
-        <v>723056</v>
+        <v>665842</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>1534</v>
       </c>
       <c r="N22" s="7">
-        <v>1402205</v>
+        <v>1518606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,46 +1972,46 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1284</v>
+        <v>1208</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>3549</v>
+        <v>3225</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>4834</v>
+        <v>4433</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,46 +2023,46 @@
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>12571</v>
+        <v>11975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>15670</v>
+        <v>14668</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
       </c>
       <c r="N24" s="7">
-        <v>28241</v>
+        <v>26643</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,46 +2074,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2628</v>
+        <v>2761</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1896</v>
+        <v>1724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>4524</v>
+        <v>4484</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,46 +2125,46 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>11296</v>
+        <v>10548</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
       </c>
       <c r="I26" s="7">
-        <v>10942</v>
+        <v>9821</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
       </c>
       <c r="N26" s="7">
-        <v>22239</v>
+        <v>20368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,7 +2176,7 @@
         <v>586</v>
       </c>
       <c r="D27" s="7">
-        <v>706929</v>
+        <v>879257</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2179,7 +2191,7 @@
         <v>1013</v>
       </c>
       <c r="I27" s="7">
-        <v>755113</v>
+        <v>695279</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2194,7 +2206,7 @@
         <v>1599</v>
       </c>
       <c r="N27" s="7">
-        <v>1462042</v>
+        <v>1574535</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2208,7 +2220,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
